--- a/biology/Botanique/Antoine-Charles_Vauthier/Antoine-Charles_Vauthier.xlsx
+++ b/biology/Botanique/Antoine-Charles_Vauthier/Antoine-Charles_Vauthier.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antoine-Charles Vauthier, né en 1790 à Paris, et mort en 1879 dans la même ville, est un botaniste, entomologiste et illustrateur français.
 </t>
@@ -511,12 +523,14 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Né le 20 décembre 1790, paroisse Saint-Sulpice, dans le 6e arrondissement de Paris, Antoine Charles Vauthier est le fils de Michel Vauthier, artiste peintre originaire de Langres[1] et de Marie Angélique Demauroy, fille d’un bourgeois de Paris[2].
-Peintre en histoire naturelle, il épouse le 20 mai 1818 dans ce même arrondissement, Marie Emilie Richard[3], fille du botaniste et professeur à l’école de médecine de Paris Louis Claude Richard (1754-1821) et devient le beau-frère  du médecin et botaniste Achille Richard.
-Veuf en 1875, il décède à Paris (6ème)  le 21 juin 1879 à l’âge de 88 ans, à son domicile situé 6 rue de Chevreuse[4]. Sa famille doit être différenciée de celle de Jules Antoine Vauthier (1774-1832) également artiste peintre à Paris[5].
-La parentèle de son épouse comprend par ailleurs l'astronome Eugène François Bouvard (1812-1879), dont le grand oncle fut Alexis Bouvard, directeur de l'Observatoire de Paris, et Alexandre Beljame, enseignant en langue et littérature anglaise à la Sorbonne[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Né le 20 décembre 1790, paroisse Saint-Sulpice, dans le 6e arrondissement de Paris, Antoine Charles Vauthier est le fils de Michel Vauthier, artiste peintre originaire de Langres et de Marie Angélique Demauroy, fille d’un bourgeois de Paris.
+Peintre en histoire naturelle, il épouse le 20 mai 1818 dans ce même arrondissement, Marie Emilie Richard, fille du botaniste et professeur à l’école de médecine de Paris Louis Claude Richard (1754-1821) et devient le beau-frère  du médecin et botaniste Achille Richard.
+Veuf en 1875, il décède à Paris (6ème)  le 21 juin 1879 à l’âge de 88 ans, à son domicile situé 6 rue de Chevreuse. Sa famille doit être différenciée de celle de Jules Antoine Vauthier (1774-1832) également artiste peintre à Paris.
+La parentèle de son épouse comprend par ailleurs l'astronome Eugène François Bouvard (1812-1879), dont le grand oncle fut Alexis Bouvard, directeur de l'Observatoire de Paris, et Alexandre Beljame, enseignant en langue et littérature anglaise à la Sorbonne.
 </t>
         </is>
       </c>
@@ -545,10 +559,12 @@
           <t>Carrière</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Antoine-Charles Vauthier, botaniste et entomologiste français, est l'auteur de livres et d'illustrations d'histoire naturelle. Son père, Michel Vauthier, arrivé à Paris en 1771[7], était pastelliste, miniaturiste à Versailles et plus tard éditeur et marchand d'art à Paris.
-En 1825, il publie dans les Annales des Sciences Naturelles une "Description d'une nouvelle espèce d'araignée du genre Epeira, de M. Walckenaer"[8], se rapportant à l'Araneus, genre d'araignées aranéomorphes de la famille des Araneidae. Il illustre également plusieurs ouvrages de son beau-frère et botaniste Achille Richard, notamment Voyage en Abyssinie.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Antoine-Charles Vauthier, botaniste et entomologiste français, est l'auteur de livres et d'illustrations d'histoire naturelle. Son père, Michel Vauthier, arrivé à Paris en 1771, était pastelliste, miniaturiste à Versailles et plus tard éditeur et marchand d'art à Paris.
+En 1825, il publie dans les Annales des Sciences Naturelles une "Description d'une nouvelle espèce d'araignée du genre Epeira, de M. Walckenaer", se rapportant à l'Araneus, genre d'araignées aranéomorphes de la famille des Araneidae. Il illustre également plusieurs ouvrages de son beau-frère et botaniste Achille Richard, notamment Voyage en Abyssinie.
 Antoine-Charles Vauthier est un collectionneur de plantes et d'insectes. Il s'embarque pour le Brésil où il débarque à Rio de Janeiro en décembre 1831. Il revient en France 18 mois plus tard et arrive au Port de Toulon le 21 mai 1833.
 </t>
         </is>
@@ -578,13 +594,15 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Il est l'illustrateur ou auteur de plusieurs ouvrages spécialisés sur le règne animal et végétal :
 Histoire Naturelle des Lépidoptères ou Papillons de France , Philogène Auguste Joseph Duponchel, Antoine-Charles Vauthier, Paul Chrétien Romain Constant Duménil, Paris, Crevot, 1821-1824 (réédition  : BiblioBazaar, 2009).
-Dictionnaire classique d’histoire naturelle, sous la direction de Jean-Baptiste Bory de Saint-Vincent. Première livraison, Paris, Rey et Gravier, Boudoin Frères, 1822[9].
-Dessins des Oeuvres de Buffon, Paris, édition Baudoin, 1828[10].
-Voyage autour du monde : exécuté pendant les années 1836 et 1837 sur la corvette la Bonite , 1840-1866[11].</t>
+Dictionnaire classique d’histoire naturelle, sous la direction de Jean-Baptiste Bory de Saint-Vincent. Première livraison, Paris, Rey et Gravier, Boudoin Frères, 1822.
+Dessins des Oeuvres de Buffon, Paris, édition Baudoin, 1828.
+Voyage autour du monde : exécuté pendant les années 1836 et 1837 sur la corvette la Bonite , 1840-1866.</t>
         </is>
       </c>
     </row>
